--- a/data/uploaded_image_links.xlsx
+++ b/data/uploaded_image_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,456 +448,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_008_1664x1664_45cf87f3.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_002_1664x1664_76f3ecfe.webp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_008_1664x1664_45cf87f3.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_002_1664x1664_76f3ecfe.webp</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_010_1664x1664_2e822dda.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_001_1664x1664_3dee1025.webp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_010_1664x1664_2e822dda.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_001_1664x1664_3dee1025.webp</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_006_1664x1664_cf8a8a6e.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_003_1664x1664_f9c9b308.webp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_006_1664x1664_cf8a8a6e.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_003_1664x1664_f9c9b308.webp</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_001_1664x1664_3c7adcc9.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_007_1664x1664_5ba9071f.webp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_001_1664x1664_3c7adcc9.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_007_1664x1664_5ba9071f.webp</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_005_1664x1664_61c0c367.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_006_1664x1664_79e2ac96.webp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_005_1664x1664_61c0c367.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_006_1664x1664_79e2ac96.webp</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_012_1664x1664_5fc67d69.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_005_1664x1664_3dfff4a8.webp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_012_1664x1664_5fc67d69.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_005_1664x1664_3dfff4a8.webp</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_009_1664x1664_aafbce20.webp</t>
+          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_004_1664x1664_e01d6fbe.webp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_009_1664x1664_aafbce20.webp</t>
+          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_004_1664x1664_e01d6fbe.webp</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_003_1664x1664_22a344e2.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_005_4x4_0dd75d22.webp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_003_1664x1664_22a344e2.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_005_4x4_0dd75d22.webp</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_011_1664x1664_c9a2691c.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_006_4x4_158817df.webp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_011_1664x1664_c9a2691c.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_006_4x4_158817df.webp</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_002_1664x1664_500581ca.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_002_4x4_73dd17f1.webp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_002_1664x1664_500581ca.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_002_4x4_73dd17f1.webp</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_004_1664x1664_3c0ca493.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_004_4x4_c60506e8.webp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_004_1664x1664_3c0ca493.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_004_4x4_c60506e8.webp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A324-45 Thin and Light Laptop (14 Inch, Pure Silver, 1.3 Kg)_original_007_1664x1664_1f6038f5.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_003_4x4_dd03d694.webp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A324-45_Thin_and_Light_Laptop_14_Inch_Pure_Silver_1.3_Kg_original_007_1664x1664_1f6038f5.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_003_4x4_dd03d694.webp</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_002_1664x1664_8e278a1f.webp</t>
+          <t>Acer Aspire 3 Laptop Intel Core Celeron N4500 Processor Laptop (8 GB LPDDR4X SDRAM-512 GB SSD-Win11 Home-38 WHR-HD Webcam) A325-45 with 39.63 cm (15.6-) HD Display, Pure Silver, 1.5 KG_original_001_4x4_b58a3d02.webp</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_002_1664x1664_8e278a1f.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG/styled_images/Acer_Aspire_3_Laptop_Intel_Core_Celeron_N4500_Processor_Laptop_8_GB_LPDDR4X_SDRAM-512_GB_SSD-Win11_Home-38_WHR-HD_Webcam_A325-45_with_39.63_cm_15.6-_HD_Display_Pure_Silver_1.5_KG_original_001_4x4_b58a3d02.webp</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_006_1664x1664_f4682d7b.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_007_1664x1664_54b51574.webp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_006_1664x1664_f4682d7b.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_007_1664x1664_54b51574.webp</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_007_1664x1664_2b293ee9.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_004_1664x1664_07f4414a.webp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_007_1664x1664_2b293ee9.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_004_1664x1664_07f4414a.webp</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_005_1664x1664_434d8057.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_006_1664x1664_8e1bebef.webp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_005_1664x1664_434d8057.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_006_1664x1664_8e1bebef.webp</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_004_1664x1664_5f2ed5f6.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_009_1664x1664_c3934fc7.webp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_004_1664x1664_5f2ed5f6.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_009_1664x1664_c3934fc7.webp</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_001_1664x1664_64e4f4ff.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_008_1664x1664_cb6c1dcf.webp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_001_1664x1664_64e4f4ff.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_008_1664x1664_cb6c1dcf.webp</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Acer One 14 AMD Ryzen 3 Dual Core 3250U - (8 GB-256 GB SSD-Windows 11 Home) Z2-493 Thin and Light Laptop (14 inch, Silver, 1.5 Kg)_original_003_1664x1664_1416c434.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_002_1664x1664_77fe297d.webp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg/styled_images/Acer_One_14_AMD_Ryzen_3_Dual_Core_3250U_-_8_GB-256_GB_SSD-Windows_11_Home_Z2-493_Thin_and_Light_Laptop_14_inch_Silver_1.5_Kg_original_003_1664x1664_1416c434.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_002_1664x1664_77fe297d.webp</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_004_1664x1664_a1811ab6.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_003_1664x1664_9c91952f.webp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_004_1664x1664_a1811ab6.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_003_1664x1664_9c91952f.webp</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_002_1664x1664_1ab6b6e9.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_005_1664x1664_4149f6a2.webp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_002_1664x1664_1ab6b6e9.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_005_1664x1664_4149f6a2.webp</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_008_1664x1664_3e80500b.webp</t>
+          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_001_1664x1664_4b22107b.webp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_008_1664x1664_3e80500b.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_007_1664x1664_cbf91eb9.webp</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_007_1664x1664_cbf91eb9.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_006_1664x1664_f8610ddf.webp</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_006_1664x1664_f8610ddf.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_009_1664x1664_dd9c9df3.webp</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_009_1664x1664_dd9c9df3.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_005_1664x1664_c682a2a9.webp</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_005_1664x1664_c682a2a9.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_001_1664x1664_21510286.webp</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_001_1664x1664_21510286.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_003_1664x1664_ccf3e0c6.webp</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_003_1664x1664_ccf3e0c6.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Intel Celeron Dual Core N4500 - (8 GB-512 GB SSD-Windows 11 Home) A325-45 Thin and Light Laptop (15.6 Inch, Steel Grey, 1.50 Kg)_original_010_1664x1664_31f843b9.webp</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg/styled_images/Acer_Aspire_3_Intel_Celeron_Dual_Core_N4500_-_8_GB-512_GB_SSD-Windows_11_Home_A325-45_Thin_and_Light_Laptop_15.6_Inch_Steel_Grey_1.50_Kg_original_010_1664x1664_31f843b9.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_005_1664x1664_c9016106.webp</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_005_1664x1664_c9016106.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_004_1664x1664_fa81be8f.webp</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_004_1664x1664_fa81be8f.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_008_1664x1664_c133d279.webp</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_008_1664x1664_c133d279.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_007_1664x1664_5b55f3ff.webp</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_007_1664x1664_5b55f3ff.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_009_1664x1664_6f9a8d3b.webp</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_009_1664x1664_6f9a8d3b.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_001_1664x1664_019380c2.webp</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_001_1664x1664_019380c2.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_003_1664x1664_ccc86744.webp</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_003_1664x1664_ccc86744.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_006_1664x1664_d1c99e34.webp</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_006_1664x1664_d1c99e34.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Acer Aspire 3 Spin 14 Intel Core i3 13th Gen N305 - (8 GB-512 GB SSD-Windows 11 Home) A3SP14-31PT-3554 Thin and Light Laptop (14 inch, Silver, 1.54 Kg, With MS Office)_original_002_1664x1664_62340e89.webp</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_002_1664x1664_62340e89.webp</t>
+          <t>https://data.synclogy.in/images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office/styled_images/Acer_Aspire_3_Spin_14_Intel_Core_i3_13th_Gen_N305_-_8_GB-512_GB_SSD-Windows_11_Home_A3SP14-31PT-3554_Thin_and_Light_Laptop_14_inch_Silver_1.54_Kg_With_MS_Office_original_001_1664x1664_4b22107b.webp</t>
         </is>
       </c>
     </row>
